--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5b</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5b</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +543,10 @@
         <v>0.405937</v>
       </c>
       <c r="I2">
-        <v>0.3367588237660872</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4323409249697527</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.139245</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N2">
-        <v>0.417735</v>
+        <v>0.252773</v>
       </c>
       <c r="O2">
-        <v>0.01212793695325064</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P2">
-        <v>0.01283499108585158</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q2">
-        <v>0.018841565855</v>
+        <v>0.01140110147788889</v>
       </c>
       <c r="R2">
-        <v>0.169574092695</v>
+        <v>0.102609913301</v>
       </c>
       <c r="S2">
-        <v>0.00408418978308595</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="T2">
-        <v>0.005549091918035605</v>
+        <v>0.008027752567511702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +605,10 @@
         <v>0.405937</v>
       </c>
       <c r="I3">
-        <v>0.3367588237660872</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4323409249697527</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +623,10 @@
         <v>28.142075</v>
       </c>
       <c r="O3">
-        <v>0.8170378621222814</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P3">
-        <v>0.8646708601442703</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q3">
         <v>1.269323277697222</v>
@@ -638,10 +635,10 @@
         <v>11.423909499275</v>
       </c>
       <c r="S3">
-        <v>0.275144709420658</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="T3">
-        <v>0.3738325994691655</v>
+        <v>0.8937569077249424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +667,40 @@
         <v>0.405937</v>
       </c>
       <c r="I4">
-        <v>0.3367588237660872</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4323409249697527</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006356333333333333</v>
+        <v>1.534105</v>
       </c>
       <c r="N4">
-        <v>0.019069</v>
+        <v>3.06821</v>
       </c>
       <c r="O4">
-        <v>0.0005536228225107701</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P4">
-        <v>0.0005858988234553099</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q4">
-        <v>0.0008600902947777777</v>
+        <v>0.2075833271283334</v>
       </c>
       <c r="R4">
-        <v>0.007740812652999999</v>
+        <v>1.24549996277</v>
       </c>
       <c r="S4">
-        <v>0.0001864373705187882</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="T4">
-        <v>0.0002533080392713585</v>
+        <v>0.09744249071366434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,412 +729,40 @@
         <v>0.405937</v>
       </c>
       <c r="I5">
-        <v>0.3367588237660872</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4323409249697527</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.897453</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N5">
-        <v>3.794906</v>
+        <v>0.024335</v>
       </c>
       <c r="O5">
-        <v>0.1652640335793479</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P5">
-        <v>0.1165992427774658</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q5">
-        <v>0.2567487928203334</v>
+        <v>0.001097608543888889</v>
       </c>
       <c r="R5">
-        <v>1.540492756922</v>
+        <v>0.009878476895</v>
       </c>
       <c r="S5">
-        <v>0.05565412155902034</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="T5">
-        <v>0.05041062447318235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1353123333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.405937</v>
-      </c>
-      <c r="I6">
-        <v>0.3367588237660872</v>
-      </c>
-      <c r="J6">
-        <v>0.4323409249697527</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.17279</v>
-      </c>
-      <c r="O6">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P6">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q6">
-        <v>0.007793539358888889</v>
-      </c>
-      <c r="R6">
-        <v>0.07014185422999999</v>
-      </c>
-      <c r="S6">
-        <v>0.001689365632804101</v>
-      </c>
-      <c r="T6">
-        <v>0.002295301070097962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2664955</v>
-      </c>
-      <c r="H7">
-        <v>0.532991</v>
-      </c>
-      <c r="I7">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J7">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.139245</v>
-      </c>
-      <c r="N7">
-        <v>0.417735</v>
-      </c>
-      <c r="O7">
-        <v>0.01212793695325064</v>
-      </c>
-      <c r="P7">
-        <v>0.01283499108585158</v>
-      </c>
-      <c r="Q7">
-        <v>0.0371081658975</v>
-      </c>
-      <c r="R7">
-        <v>0.222648995385</v>
-      </c>
-      <c r="S7">
-        <v>0.008043747170164693</v>
-      </c>
-      <c r="T7">
-        <v>0.007285899167815978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.2664955</v>
-      </c>
-      <c r="H8">
-        <v>0.532991</v>
-      </c>
-      <c r="I8">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J8">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.380691666666667</v>
-      </c>
-      <c r="N8">
-        <v>28.142075</v>
-      </c>
-      <c r="O8">
-        <v>0.8170378621222814</v>
-      </c>
-      <c r="P8">
-        <v>0.8646708601442703</v>
-      </c>
-      <c r="Q8">
-        <v>2.499912116054167</v>
-      </c>
-      <c r="R8">
-        <v>14.999472696325</v>
-      </c>
-      <c r="S8">
-        <v>0.5418931527016233</v>
-      </c>
-      <c r="T8">
-        <v>0.4908382606751048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.2664955</v>
-      </c>
-      <c r="H9">
-        <v>0.532991</v>
-      </c>
-      <c r="I9">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J9">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.006356333333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.019069</v>
-      </c>
-      <c r="O9">
-        <v>0.0005536228225107701</v>
-      </c>
-      <c r="P9">
-        <v>0.0005858988234553099</v>
-      </c>
-      <c r="Q9">
-        <v>0.001693934229833333</v>
-      </c>
-      <c r="R9">
-        <v>0.010163605379</v>
-      </c>
-      <c r="S9">
-        <v>0.0003671854519919819</v>
-      </c>
-      <c r="T9">
-        <v>0.0003325907841839513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.2664955</v>
-      </c>
-      <c r="H10">
-        <v>0.532991</v>
-      </c>
-      <c r="I10">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J10">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.897453</v>
-      </c>
-      <c r="N10">
-        <v>3.794906</v>
-      </c>
-      <c r="O10">
-        <v>0.1652640335793479</v>
-      </c>
-      <c r="P10">
-        <v>0.1165992427774658</v>
-      </c>
-      <c r="Q10">
-        <v>0.5056626859615</v>
-      </c>
-      <c r="R10">
-        <v>2.022650743846</v>
-      </c>
-      <c r="S10">
-        <v>0.1096099120203276</v>
-      </c>
-      <c r="T10">
-        <v>0.06618861830428351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.2664955</v>
-      </c>
-      <c r="H11">
-        <v>0.532991</v>
-      </c>
-      <c r="I11">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J11">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.17279</v>
-      </c>
-      <c r="O11">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P11">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q11">
-        <v>0.01534925248166667</v>
-      </c>
-      <c r="R11">
-        <v>0.09209551488999999</v>
-      </c>
-      <c r="S11">
-        <v>0.003327178889805158</v>
-      </c>
-      <c r="T11">
-        <v>0.003013706098859141</v>
+        <v>0.0007728489938814559</v>
       </c>
     </row>
   </sheetData>
